--- a/biology/Microbiologie/Sphingobacteriia/Sphingobacteriia.xlsx
+++ b/biology/Microbiologie/Sphingobacteriia/Sphingobacteriia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classe des Sphingobacteriia est composée d'un seul ordre de bactéries des Sphingobacteriales. Elles sont capables de produire des sphingolipides.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe des Sphingobacteriia décrite en 2012 par Kämpfer[1] ne doit pas être confondue avec le phylum Sphingobacteria valide uniquement dans la classification de Cavalier-Smith et non reconnue par l'ICSP[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe des Sphingobacteriia décrite en 2012 par Kämpfer ne doit pas être confondue avec le phylum Sphingobacteria valide uniquement dans la classification de Cavalier-Smith et non reconnue par l'ICSP.
 </t>
         </is>
       </c>
@@ -544,10 +558,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Étymologie
-L'étymologie de la classe Sphongobacteriia est la suivante :  N.L. neut. n. Sphingobacterium, genre type de l'ordre; N.L. neut. pl. n. suff. -ia, suffixe définissant une classe; N.L. neut. pl. n. Sphingobacteriia, La classe de Sphingobacterium[3].
-Liste des ordres et familles
-Selon la LPSN  (18 février 2023)[4], la classe Sphingobacteriia comprend un ordre et deux familles :
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de la classe Sphongobacteriia est la suivante :  N.L. neut. n. Sphingobacterium, genre type de l'ordre; N.L. neut. pl. n. suff. -ia, suffixe définissant une classe; N.L. neut. pl. n. Sphingobacteriia, La classe de Sphingobacterium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sphingobacteriia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphingobacteriia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des ordres et familles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (18 février 2023), la classe Sphingobacteriia comprend un ordre et deux familles :
 ordre des Sphingobacteriales
 famille des Sphingobacteriaceae
 famille des Filobacteriaceae</t>
